--- a/he/helist.xlsx
+++ b/he/helist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vanessakomar/Documents/Graz/2nd Semester/HCI/HCI/he/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710482F9-2675-7844-B6C3-C2963967A6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CC65B5-2795-754E-BBEA-86DF196338A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-1520" windowWidth="38400" windowHeight="21100" tabRatio="281" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1615,7 +1615,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
